--- a/Difraccion de Electrones/Difraccion.xlsx
+++ b/Difraccion de Electrones/Difraccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiaalvarezlopez/Documents/Universidad/Noveno Semestre/Laboratorio Intermedio/Laboratorios/Difraccion de Electrones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159BFD61-24EC-2B4C-A288-A3736FEEA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D2F2D-9278-6F4A-843D-F6D2BF3BE626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{2156F405-A700-634F-BC65-9B6973A2C036}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20160" activeTab="2" xr2:uid="{2156F405-A700-634F-BC65-9B6973A2C036}"/>
   </bookViews>
   <sheets>
     <sheet name="Primeros" sheetId="1" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541C93A2-E94A-EF4D-B18A-673C53F11AC1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
